--- a/data_files/STEC_O157_2018.xlsx
+++ b/data_files/STEC_O157_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44731D2C-7EA9-4ECE-A4A7-A180CAF0A7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C45660-0CA0-4426-B364-1B44AAE41925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Cost component</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Note: In each pathogen Excel file, the spreadsheets for low, mean, and high costs of foodborne illness are linked to the spreadsheet with per-case assumptions. Users may change the assumptions in the per-case assumptions worksheet to conduct sensitivity analysis on the influence of specific per-case assumptions. They may also update per-case costs in the per-case assumptions worksheet for inflation and income growth by using information from the Consumer Price Indexes Excel spreadsheet and the Value of Statistical Life Excel spreadsheet provided as part of this data product. See the Documentation page of this data product for further guidance. Note that this set of estimates updates USDA, Economic Research Service (ERS) 2013 estimates to 2018 by adjusting for inflation and income growth as described in the Documentation page of this website. It does not update incidence number or the number of illness outcomes. Estimates in 2013 dollars can be found in the archive on the ERS, Cost of Foodborne Illnesses Data Product website.</t>
+  </si>
+  <si>
+    <t>Health outcomes</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1775,9 @@
   </sheetPr>
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6"/>
   <cols>
@@ -1860,9 +1865,11 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:39" ht="60">
-      <c r="A5" s="32"/>
+      <c r="A5" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="109" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F5" s="84" t="s">
         <v>19</v>
